--- a/app/excel/SCRIPT.xlsx
+++ b/app/excel/SCRIPT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tour</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,8 +42,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>narrative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>a_given_b_blank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unscramble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchupclick</t>
+  </si>
+  <si>
+    <t>multiple_choice</t>
   </si>
 </sst>
 </file>
@@ -389,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -439,6 +449,30 @@
       </c>
       <c r="D4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/excel/SCRIPT.xlsx
+++ b/app/excel/SCRIPT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tour</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>multiple_choice</t>
+  </si>
+  <si>
+    <t>letter_number_match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -399,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -472,6 +476,14 @@
         <v>9</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
     </row>

--- a/app/excel/SCRIPT.xlsx
+++ b/app/excel/SCRIPT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Tour</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -485,6 +485,60 @@
       </c>
       <c r="D8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
